--- a/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб5_Пузынин_Д.А..xlsx
+++ b/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб5_Пузынин_Д.А..xlsx
@@ -1,31 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\OneDrive\Desktop\python\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Дима\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\Desktop\VSCode\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Дима\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24648F7-5EEB-4CAC-A7A2-04D7AC0D859F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391BE002-2127-43BC-9EC8-466F41E81DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="713" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ввод данных" sheetId="1" r:id="rId1"/>
+    <sheet name="Список значений" sheetId="2" r:id="rId2"/>
+    <sheet name="Сотрудники" sheetId="3" r:id="rId3"/>
+    <sheet name="Фильтры" sheetId="6" r:id="rId4"/>
+    <sheet name="Фильтры &quot;с.р.&quot;" sheetId="4" r:id="rId5"/>
+    <sheet name="Сортировка1" sheetId="5" r:id="rId6"/>
+    <sheet name="Сортировка2" sheetId="7" r:id="rId7"/>
+    <sheet name="Итоги1" sheetId="9" r:id="rId8"/>
+    <sheet name="Итоги2" sheetId="10" r:id="rId9"/>
+    <sheet name="Д-функ" sheetId="11" r:id="rId10"/>
+    <sheet name="Сводн.табл.ДнныеТранзакций" sheetId="14" r:id="rId11"/>
+    <sheet name="Данные транзакций" sheetId="12" r:id="rId12"/>
+    <sheet name="Сводн.табл.2" sheetId="16" r:id="rId13"/>
+    <sheet name="Данные свод.табл.2" sheetId="15" r:id="rId14"/>
+    <sheet name="Сводн.табл.к|в27" sheetId="24" r:id="rId15"/>
+    <sheet name="Контрольный вопрос 27" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Итоги1!$F$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Итоги2!$A$1:$J$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Сотрудники!$A$1:$G$16</definedName>
+    <definedName name="База">'Д-функ'!$A$1:$G$16</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId17"/>
+    <pivotCache cacheId="1" r:id="rId18"/>
+    <pivotCache cacheId="44" r:id="rId19"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="151">
   <si>
     <t>Фамилия</t>
   </si>
@@ -103,22 +138,407 @@
   </si>
   <si>
     <t>Вид счёта</t>
+  </si>
+  <si>
+    <t>Новороссийск</t>
+  </si>
+  <si>
+    <t>Омск</t>
+  </si>
+  <si>
+    <t>Екатеринбург</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>Красноярск</t>
+  </si>
+  <si>
+    <t>Дата открытия счёта</t>
+  </si>
+  <si>
+    <t>Срок вклада</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Текущий</t>
+  </si>
+  <si>
+    <t>Срочный</t>
+  </si>
+  <si>
+    <t>Вид счета</t>
+  </si>
+  <si>
+    <t>Оклад, руб</t>
+  </si>
+  <si>
+    <t>Годовой фонд зарплаты, руб</t>
+  </si>
+  <si>
+    <t>Отдел</t>
+  </si>
+  <si>
+    <t>Дата приёма на работу</t>
+  </si>
+  <si>
+    <t>Петрова</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Андреевна</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>Ноткин</t>
+  </si>
+  <si>
+    <t>Семенович</t>
+  </si>
+  <si>
+    <t>Бухгалтерия</t>
+  </si>
+  <si>
+    <t>Андреева</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Олеговна</t>
+  </si>
+  <si>
+    <t>ОК</t>
+  </si>
+  <si>
+    <t>Крылова</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>Быстрова</t>
+  </si>
+  <si>
+    <t>Татьяна</t>
+  </si>
+  <si>
+    <t>Бершев</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Цех №1</t>
+  </si>
+  <si>
+    <t>Ерохин</t>
+  </si>
+  <si>
+    <t>Федорович</t>
+  </si>
+  <si>
+    <t>Самойлов</t>
+  </si>
+  <si>
+    <t>Семен</t>
+  </si>
+  <si>
+    <t>Горбатов</t>
+  </si>
+  <si>
+    <t>Фандеев</t>
+  </si>
+  <si>
+    <t>Цех №2</t>
+  </si>
+  <si>
+    <t>Васин</t>
+  </si>
+  <si>
+    <t>Игорь</t>
+  </si>
+  <si>
+    <t>Конов</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Алексеевич</t>
+  </si>
+  <si>
+    <t>Семеновна</t>
+  </si>
+  <si>
+    <t>Доценко</t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>Максимовна</t>
+  </si>
+  <si>
+    <t>Приём после 01.01.2000</t>
+  </si>
+  <si>
+    <t>3 самых ранних</t>
+  </si>
+  <si>
+    <t>Работники склада - сортировка по убыванию оклада</t>
+  </si>
+  <si>
+    <t>Фамилии, начинающиеся с "Б"</t>
+  </si>
+  <si>
+    <t>3 поздних</t>
+  </si>
+  <si>
+    <t>200000 - 250000 руб.</t>
+  </si>
+  <si>
+    <t>Возрастание алфавита "Фамилия"</t>
+  </si>
+  <si>
+    <t>"Дата приёма на работу" по возрастанию</t>
+  </si>
+  <si>
+    <t>Бухгалтерия Итог</t>
+  </si>
+  <si>
+    <t>ОК Итог</t>
+  </si>
+  <si>
+    <t>Склад Итог</t>
+  </si>
+  <si>
+    <t>Цех №1 Итог</t>
+  </si>
+  <si>
+    <t>Цех №2 Итог</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>Срочный Итог</t>
+  </si>
+  <si>
+    <t>Текущий Итог</t>
+  </si>
+  <si>
+    <t>&gt;20000</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Счет</t>
+  </si>
+  <si>
+    <t>&gt;=01.01.2000</t>
+  </si>
+  <si>
+    <t>&lt;=31.12.2003</t>
+  </si>
+  <si>
+    <t>Средний оклад</t>
+  </si>
+  <si>
+    <t>&lt;=31.12.2000</t>
+  </si>
+  <si>
+    <t>Счёт</t>
+  </si>
+  <si>
+    <t>Максимальный средний оклад</t>
+  </si>
+  <si>
+    <t>Минимальный средний оклад</t>
+  </si>
+  <si>
+    <t>Наибольший годовой фонд</t>
+  </si>
+  <si>
+    <t>Наименьший годовой фонд</t>
+  </si>
+  <si>
+    <t>&gt;=01.01.1999</t>
+  </si>
+  <si>
+    <t>&lt;=31.12.1999</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Сумма счета, руб</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Открыл</t>
+  </si>
+  <si>
+    <t>Отделение</t>
+  </si>
+  <si>
+    <t>Клиент</t>
+  </si>
+  <si>
+    <t>Уполномоченный</t>
+  </si>
+  <si>
+    <t>Центральное</t>
+  </si>
+  <si>
+    <t>Обычный</t>
+  </si>
+  <si>
+    <t>Депозит</t>
+  </si>
+  <si>
+    <t>Кассир</t>
+  </si>
+  <si>
+    <t>Западное</t>
+  </si>
+  <si>
+    <t>Северное</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>Обычны</t>
+  </si>
+  <si>
+    <t>Названия строк</t>
+  </si>
+  <si>
+    <t>Сумма по полю Сумма счета, руб</t>
+  </si>
+  <si>
+    <t>Названия столбцов</t>
+  </si>
+  <si>
+    <t>(Все)</t>
+  </si>
+  <si>
+    <t>Сотрудник</t>
+  </si>
+  <si>
+    <t>Год приёма на работу</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Андреева Любовь Павловна </t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t>Маркетинг</t>
+  </si>
+  <si>
+    <t>Бершев Федор Григорьевич</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>Управлени</t>
+  </si>
+  <si>
+    <t>Буденков Денис Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Васин Петр Семенович </t>
+  </si>
+  <si>
+    <t>Управление</t>
+  </si>
+  <si>
+    <t>Голубицкая Елена Максимовна</t>
+  </si>
+  <si>
+    <t>Маркетин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Горбатов Илья Егорович </t>
+  </si>
+  <si>
+    <t>Грицацуева Сара Абрамовна</t>
+  </si>
+  <si>
+    <t>Зайцев Леонид Петрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванкин Иван Иванович </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крылова Анастасия Петровна </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крылова Ирина Валерьевна </t>
+  </si>
+  <si>
+    <t>Ноткин Михаил Максимович</t>
+  </si>
+  <si>
+    <t>Петрова Лариса Федоровна</t>
+  </si>
+  <si>
+    <t>Самойлов Артем Денисович</t>
+  </si>
+  <si>
+    <t>Сирко Карл Петрович</t>
+  </si>
+  <si>
+    <t>Количество по полю Сотрудник</t>
+  </si>
+  <si>
+    <t>Сумма по полю Оклад, руб</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,16 +554,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -151,62 +626,277 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,17 +911,1030 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Дмитрий Пузынин" refreshedDate="45618.845462731479" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="15" xr:uid="{4E198C89-F414-4DB5-AE1A-C7847FB00B0B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F16" sheet="Данные транзакций"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Дата" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2005-09-01T00:00:00" maxDate="2005-09-04T00:00:00" count="3">
+        <d v="2005-09-01T00:00:00"/>
+        <d v="2005-09-02T00:00:00"/>
+        <d v="2005-09-03T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Сумма счета, руб" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4000" maxValue="400000"/>
+    </cacheField>
+    <cacheField name="Тип" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Текущий"/>
+        <s v="Депозит"/>
+        <s v="Срочный"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Открыл" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Уполномоченный"/>
+        <s v="Кассир"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Отделение" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Центральное"/>
+        <s v="Западное"/>
+        <s v="Северное"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Клиент" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Обычный"/>
+        <s v="VIP"/>
+        <s v="Обычны"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Дмитрий Пузынин" refreshedDate="45618.848087615741" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="15" xr:uid="{F157439B-45E3-4A0A-A029-A5105F03EC4C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D16" sheet="Данные свод.табл.2"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Сотрудник" numFmtId="0">
+      <sharedItems count="15">
+        <s v="Андреева Любовь Павловна "/>
+        <s v="Бершев Федор Григорьевич"/>
+        <s v="Буденков Денис Алексеевич"/>
+        <s v="Васин Петр Семенович "/>
+        <s v="Голубицкая Елена Максимовна"/>
+        <s v="Горбатов Илья Егорович "/>
+        <s v="Грицацуева Сара Абрамовна"/>
+        <s v="Зайцев Леонид Петрович"/>
+        <s v="Иванкин Иван Иванович "/>
+        <s v="Крылова Анастасия Петровна "/>
+        <s v="Крылова Ирина Валерьевна "/>
+        <s v="Ноткин Михаил Максимович"/>
+        <s v="Петрова Лариса Федоровна"/>
+        <s v="Самойлов Артем Денисович"/>
+        <s v="Сирко Карл Петрович"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Год приёма на работу" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2000" maxValue="2005" count="6">
+        <n v="2005"/>
+        <n v="2001"/>
+        <n v="2002"/>
+        <n v="2004"/>
+        <n v="2000"/>
+        <n v="2003"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Пол" numFmtId="0">
+      <sharedItems count="2">
+        <s v="ж"/>
+        <s v="м"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Отдел" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Маркетинг"/>
+        <s v="Управлени"/>
+        <s v="Склад"/>
+        <s v="Управление"/>
+        <s v="Маркетин"/>
+        <s v="Бухгалтерия"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Дмитрий Пузынин" refreshedDate="45618.927413657409" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="15" xr:uid="{134C871B-76D4-4D0F-946F-BFD9A1BCBA49}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G16" sheet="Контрольный вопрос 27"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Фамилия" numFmtId="0">
+      <sharedItems count="13">
+        <s v="Петрова"/>
+        <s v="Ноткин"/>
+        <s v="Андреева"/>
+        <s v="Крылова"/>
+        <s v="Быстрова"/>
+        <s v="Бершев"/>
+        <s v="Ерохин"/>
+        <s v="Самойлов"/>
+        <s v="Горбатов"/>
+        <s v="Фандеев"/>
+        <s v="Васин"/>
+        <s v="Конов"/>
+        <s v="Доценко"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Имя" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Мария"/>
+        <s v="Иван"/>
+        <s v="Анна"/>
+        <s v="Ольга"/>
+        <s v="Татьяна"/>
+        <s v="Никита"/>
+        <s v="Семен"/>
+        <s v="Петр"/>
+        <s v="Игорь"/>
+        <s v="Алексей"/>
+        <s v="Ирина"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Отчество" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Андреевна"/>
+        <s v="Семенович"/>
+        <s v="Олеговна"/>
+        <s v="Сергеевна"/>
+        <s v="Иванович"/>
+        <s v="Федорович"/>
+        <s v="Петрович"/>
+        <s v="Алексеевич"/>
+        <s v="Семеновна"/>
+        <s v="Сергеевич"/>
+        <s v="Максимовна"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Оклад, руб" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16250" maxValue="30375"/>
+    </cacheField>
+    <cacheField name="Годовой фонд зарплаты, руб" numFmtId="166">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="185992" maxValue="385446"/>
+    </cacheField>
+    <cacheField name="Отдел" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Склад"/>
+        <s v="Бухгалтерия"/>
+        <s v="ОК"/>
+        <s v="Цех №1"/>
+        <s v="Цех №2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Дата приёма на работу" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1994-04-11T00:00:00" maxDate="2006-06-10T00:00:00"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <n v="5000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15000"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="15000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="120000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="90000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="50000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="400000"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="10000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="14000"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="100000"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4000"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="50000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="300000"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="30375"/>
+    <n v="324500"/>
+    <x v="0"/>
+    <d v="1994-04-11T00:00:00"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="19000"/>
+    <n v="208000"/>
+    <x v="1"/>
+    <d v="1998-07-09T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="16250"/>
+    <n v="275000"/>
+    <x v="2"/>
+    <d v="1999-01-02T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="18083"/>
+    <n v="296996"/>
+    <x v="0"/>
+    <d v="1999-09-06T00:00:00"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="27120.5"/>
+    <n v="385446"/>
+    <x v="2"/>
+    <d v="1999-12-05T00:00:00"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="4"/>
+    <n v="28450"/>
+    <n v="301400"/>
+    <x v="3"/>
+    <d v="2000-01-03T00:00:00"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="5"/>
+    <n v="18541"/>
+    <n v="302492"/>
+    <x v="1"/>
+    <d v="2000-08-07T00:00:00"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="26708"/>
+    <n v="280496"/>
+    <x v="1"/>
+    <d v="2000-12-03T00:00:00"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="19916.5"/>
+    <n v="218998"/>
+    <x v="0"/>
+    <d v="2001-05-11T00:00:00"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="7"/>
+    <x v="4"/>
+    <n v="18657"/>
+    <n v="303884"/>
+    <x v="4"/>
+    <d v="2001-06-09T00:00:00"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="8"/>
+    <x v="6"/>
+    <n v="17625"/>
+    <n v="191500"/>
+    <x v="4"/>
+    <d v="2001-10-05T00:00:00"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="9"/>
+    <x v="7"/>
+    <n v="16852.5"/>
+    <n v="282230"/>
+    <x v="3"/>
+    <d v="2001-11-05T00:00:00"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="8"/>
+    <n v="27166"/>
+    <n v="185992"/>
+    <x v="1"/>
+    <d v="2002-11-04T00:00:00"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="1"/>
+    <x v="9"/>
+    <n v="29800"/>
+    <n v="317600"/>
+    <x v="4"/>
+    <d v="2003-07-15T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="19458.5"/>
+    <n v="213502"/>
+    <x v="3"/>
+    <d v="2006-06-09T00:00:00"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C579B03F-9D51-4CDC-B69B-F04A1833BBE9}" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A5:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisPage" numFmtId="14" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="5" item="0" hier="-1"/>
+    <pageField fld="0" item="1" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Сумма счета, руб" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F2745D0-F05C-455D-A8BB-AB91F8301010}" name="Сводная таблица3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="4">
+    <pivotField dataField="1" showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Количество по полю Сотрудник" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F16F63A8-E1A9-4936-9471-0C8AFA79D046}" name="Сводная таблица6" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B54" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="14">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="9"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="7"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="5"/>
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="51">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Сумма по полю Оклад, руб" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A369974-74D3-4DF1-973D-2EE165ECCBD1}" name="Таблица2" displayName="Таблица2" ref="A1:G9" totalsRowShown="0">
-  <autoFilter ref="A1:G9" xr:uid="{3A369974-74D3-4DF1-973D-2EE165ECCBD1}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3A369974-74D3-4DF1-973D-2EE165ECCBD1}" name="Таблица2" displayName="Таблица2" ref="A1:J9" totalsRowShown="0">
+  <autoFilter ref="A1:J9" xr:uid="{3A369974-74D3-4DF1-973D-2EE165ECCBD1}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{BE44A168-E56A-45C6-A010-DF3C0CBEDAC0}" name="Фамилия"/>
     <tableColumn id="2" xr3:uid="{9156E164-D6E6-431C-B7DD-3C87A40E4F16}" name="Имя"/>
     <tableColumn id="3" xr3:uid="{8AC76158-01CB-4E9F-BD1C-8D8BB6124340}" name="Отчество"/>
-    <tableColumn id="4" xr3:uid="{32D69ABE-2764-457E-9FFF-A2FF830F1FFC}" name="Телефон" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{32D69ABE-2764-457E-9FFF-A2FF830F1FFC}" name="Телефон" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{C40E49CD-7C6A-4DF3-89CD-792B79FFF949}" name="Взнос"/>
-    <tableColumn id="6" xr3:uid="{337988CE-3202-4091-B37C-873066F39CB6}" name="Возраст" dataDxfId="2" dataCellStyle="Денежный"/>
-    <tableColumn id="7" xr3:uid="{7F89B6A5-75BA-4FE9-9FFA-B66FF79553E0}" name="Вид счёта" dataDxfId="0" dataCellStyle="Денежный"/>
+    <tableColumn id="6" xr3:uid="{03FAD613-720E-4F2B-BC05-63AA2069F02C}" name="Возраст" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{A91E7363-F281-4F7D-AABD-C175385491B5}" name="Вид счёта" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{B61DAF5C-A2CE-44EA-AD79-7823879B4B58}" name="Дата открытия счёта" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{A8116B02-D6A5-41DD-871E-39EDDE3D4BE0}" name="Срок вклада"/>
+    <tableColumn id="10" xr3:uid="{333F16E1-8279-4317-A909-8F78D8FF48C6}" name="Город"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,10 +2203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,9 +2217,11 @@
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,14 +2237,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -555,10 +2269,23 @@
       <c r="E2" s="1">
         <v>567</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="14">
+        <v>33</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="16">
+        <v>45323</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -574,10 +2301,23 @@
       <c r="E3" s="1">
         <v>300</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="17">
+        <v>22</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="16">
+        <v>45481</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -593,10 +2333,23 @@
       <c r="E4" s="1">
         <v>400</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="14">
+        <v>88</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="16">
+        <v>45607</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -612,10 +2365,23 @@
       <c r="E5" s="1">
         <v>800</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="17">
+        <v>44</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="16">
+        <v>45494</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -629,10 +2395,23 @@
         <v>79082113456</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="14">
+        <v>19</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="16">
+        <v>45655</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -648,10 +2427,23 @@
       <c r="E7" s="1">
         <v>200</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="17">
+        <v>21</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="16">
+        <v>45572</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -667,10 +2459,23 @@
       <c r="E8" s="1">
         <v>155</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="14">
+        <v>55</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="16">
+        <v>45386</v>
+      </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -686,23 +2491,5542 @@
       <c r="E9" s="1">
         <v>1200.5</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="19">
+        <v>66</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="16">
+        <v>45435</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Возраст вкладчика должен быть в диапозоне от 18 до 100" promptTitle="Подсказка" prompt="Укажите возраст вкладчика" sqref="F2:G9" xr:uid="{D2A46D5C-B25B-4161-AD0A-53D4F3974280}">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations xWindow="839" yWindow="273" count="5">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите номер телефона" sqref="D2:D9" xr:uid="{1FE70021-EF2C-4105-A765-BF193E287697}">
+      <formula1>11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Введёно неверное название города" prompt="Укажите город из списка: Москва, Новороссийск, Екатеринбург, Омск, Красноярск." sqref="J2:J9" xr:uid="{0C73375E-703B-49B0-A397-45682A691663}">
+      <formula1>"Москва, Новороссийск,Екатеринбург,Омск,Красноярск"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Срок вклада не может быть меньше 2 лет" prompt="Введите срок вклада" sqref="I2:I9" xr:uid="{5B9CCDCA-476A-47FC-AB3D-A6AB5520CBD5}">
+      <formula1>2</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Введённая дата не находится в допустимом диапазоне" prompt="Введите дату с 1 яанваря по 31 декабря текущего года" sqref="H2:H9" xr:uid="{FE15A98F-0D0E-4CC2-9249-31836D3C9B5F}">
+      <formula1>45292</formula1>
+      <formula2>45657</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Возраст вкладчика должен быть от 18 и до 100" prompt="Укажите возраст вкладчика" sqref="F2:F9" xr:uid="{21BEE61C-7344-46D4-A493-4E012492BF03}">
       <formula1>18</formula1>
       <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите номер телефона" sqref="D2:D9" xr:uid="{1FE70021-EF2C-4105-A765-BF193E287697}">
-      <formula1>11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="839" yWindow="273" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54B6C91A-B7DF-4B8E-828A-D2FB668D7468}">
+          <x14:formula1>
+            <xm:f>'Список значений'!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Вы неверно ввели вид счёта_x000a_" prompt="Введите вид счёта: текущий/срочный" xr:uid="{89F5F7B1-604E-4CE2-8B14-9DB9ABA0DA1C}">
+          <x14:formula1>
+            <xm:f>'Список значений'!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFE82E2-8E46-4B52-A8FD-038A937AE0D4}">
+  <dimension ref="A1:O38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="25">
+        <v>30375</v>
+      </c>
+      <c r="E2" s="25">
+        <v>324500</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="26">
+        <v>34435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="25">
+        <v>19000</v>
+      </c>
+      <c r="E3" s="25">
+        <v>208000</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="26">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="25">
+        <v>16250</v>
+      </c>
+      <c r="E4" s="25">
+        <v>275000</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="26">
+        <v>36162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="25">
+        <v>18083</v>
+      </c>
+      <c r="E5" s="25">
+        <v>296996</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="26">
+        <v>36409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="25">
+        <v>27120.5</v>
+      </c>
+      <c r="E6" s="25">
+        <v>385446</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="26">
+        <v>36499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="25">
+        <v>28450</v>
+      </c>
+      <c r="E7" s="25">
+        <v>301400</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="26">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="25">
+        <v>18541</v>
+      </c>
+      <c r="E8" s="25">
+        <v>302492</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="26">
+        <v>36745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="25">
+        <v>26708</v>
+      </c>
+      <c r="E9" s="25">
+        <v>280496</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="26">
+        <v>36863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="E10" s="25">
+        <v>218998</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="26">
+        <v>37022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="25">
+        <v>18657</v>
+      </c>
+      <c r="E11" s="25">
+        <v>303884</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="26">
+        <v>37051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="25">
+        <v>17625</v>
+      </c>
+      <c r="E12" s="25">
+        <v>191500</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="26">
+        <v>37169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="25">
+        <v>16852.5</v>
+      </c>
+      <c r="E13" s="25">
+        <v>282230</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="26">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="25">
+        <v>27166</v>
+      </c>
+      <c r="E14" s="25">
+        <v>185992</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="26">
+        <v>37564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="25">
+        <v>29800</v>
+      </c>
+      <c r="E15" s="25">
+        <v>317600</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="26">
+        <v>37817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="E16" s="25">
+        <v>213502</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="26">
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="27" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="22">
+        <f>DSUM(База,D1,A19:A20)</f>
+        <v>169619.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="22">
+        <f>DSUM(База,E1,A22:A23)</f>
+        <v>976980</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="22">
+        <f>DSUM(База,$E1,C22:C23)</f>
+        <v>840494</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="22">
+        <f>DSUM(База,$E1,E22:E23)</f>
+        <v>660446</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="22">
+        <f>DSUM(База,$E1,G22:G23)</f>
+        <v>797132</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="22">
+        <f>DSUM(База,$E1,I22:I23)</f>
+        <v>812984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="22">
+        <f>DCOUNT(База,G1,A25:B26)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="22">
+        <f>DAVERAGE(База,$D1,A28:A29)</f>
+        <v>22853.75</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="22">
+        <f>DAVERAGE(База,$D1,C28:C29)</f>
+        <v>22791.5</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="22">
+        <f>DAVERAGE(База,$D1,E28:E29)</f>
+        <v>21685.25</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="22">
+        <f>DAVERAGE(База,$D1,G28:G29)</f>
+        <v>21587</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J29" s="22">
+        <f>DAVERAGE(База,$D1,I28:I29)</f>
+        <v>22027.333333333332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="49">
+        <f>DAVERAGE(База,E1,A31:B32)</f>
+        <v>294796</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="O34" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="22">
+        <f>DMAX(База,$D1,A34:A35)</f>
+        <v>27166</v>
+      </c>
+      <c r="C35" s="22">
+        <f>DMIN(База,$D1,A34:A35)</f>
+        <v>18541</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="22">
+        <f>DMAX(База,$D1,D34:D35)</f>
+        <v>30375</v>
+      </c>
+      <c r="F35" s="22">
+        <f>DMIN(База,$D1,D34:D35)</f>
+        <v>18083</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H35" s="22">
+        <f>DMAX(База,$D1,G34:G35)</f>
+        <v>27120.5</v>
+      </c>
+      <c r="I35" s="22">
+        <f>DMIN(База,$D1,G34:G35)</f>
+        <v>16250</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K35" s="22">
+        <f>DMAX(База,$D1,J34:J35)</f>
+        <v>28450</v>
+      </c>
+      <c r="L35" s="22">
+        <f>DMIN(База,$D1,J34:J35)</f>
+        <v>16852.5</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="22">
+        <f>DMAX(База,$D1,M34:M35)</f>
+        <v>29800</v>
+      </c>
+      <c r="O35" s="22">
+        <f>DMIN(База,$D1,M34:M35)</f>
+        <v>17625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="22">
+        <f>DMAX(База,$E1,$A37:$B38)</f>
+        <v>385446</v>
+      </c>
+      <c r="D38" s="22">
+        <f>DMIN(База,$E1,$A37:$B38)</f>
+        <v>275000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBAF9EC-92D0-4A53-B8B8-071360ECCE05}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="55">
+        <v>38597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="54">
+        <v>100000</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54">
+        <v>400000</v>
+      </c>
+      <c r="D8" s="54">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="54">
+        <v>100000</v>
+      </c>
+      <c r="C9" s="54">
+        <v>400000</v>
+      </c>
+      <c r="D9" s="54">
+        <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A55592B8-2095-4A53-B914-E5392577413B}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="51">
+        <v>38596</v>
+      </c>
+      <c r="B2" s="22">
+        <v>5000</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="51">
+        <v>38596</v>
+      </c>
+      <c r="B3" s="22">
+        <v>15000</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
+        <v>38596</v>
+      </c>
+      <c r="B4" s="22">
+        <v>15000</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
+        <v>38596</v>
+      </c>
+      <c r="B5" s="22">
+        <v>120000</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>38596</v>
+      </c>
+      <c r="B6" s="22">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="51">
+        <v>38596</v>
+      </c>
+      <c r="B7" s="22">
+        <v>7000</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="51">
+        <v>38596</v>
+      </c>
+      <c r="B8" s="22">
+        <v>90000</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="51">
+        <v>38597</v>
+      </c>
+      <c r="B9" s="22">
+        <v>50000</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="51">
+        <v>38597</v>
+      </c>
+      <c r="B10" s="22">
+        <v>400000</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="51">
+        <v>38597</v>
+      </c>
+      <c r="B11" s="22">
+        <v>10000</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="51">
+        <v>38597</v>
+      </c>
+      <c r="B12" s="22">
+        <v>14000</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="51">
+        <v>38597</v>
+      </c>
+      <c r="B13" s="22">
+        <v>100000</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="51">
+        <v>38597</v>
+      </c>
+      <c r="B14" s="22">
+        <v>4000</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="51">
+        <v>38597</v>
+      </c>
+      <c r="B15" s="22">
+        <v>50000</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="51">
+        <v>38598</v>
+      </c>
+      <c r="B16" s="22">
+        <v>300000</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19AC219-FC8D-492B-AB3F-78E029BF9789}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="54">
+        <v>1</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54">
+        <v>1</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
+        <v>2001</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54">
+        <v>1</v>
+      </c>
+      <c r="E6" s="54">
+        <v>1</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="53">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="54">
+        <v>2</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="53">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54">
+        <v>1</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
+        <v>2005</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54">
+        <v>1</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54">
+        <v>1</v>
+      </c>
+      <c r="G9" s="54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="54">
+        <v>3</v>
+      </c>
+      <c r="C10" s="54">
+        <v>1</v>
+      </c>
+      <c r="D10" s="54">
+        <v>3</v>
+      </c>
+      <c r="E10" s="54">
+        <v>1</v>
+      </c>
+      <c r="F10" s="54">
+        <v>1</v>
+      </c>
+      <c r="G10" s="54">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E60BD79-E85C-4475-B23C-9CCD92BF86FA}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="22">
+        <v>2005</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2001</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="22">
+        <v>2001</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="22">
+        <v>2005</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="22">
+        <v>2001</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="22">
+        <v>2002</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="22">
+        <v>2005</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="22">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="22">
+        <v>2002</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="22">
+        <v>2004</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="22">
+        <v>2001</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="22">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="22">
+        <v>2004</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="22">
+        <v>2003</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="22">
+        <v>2000</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CC9498-55D9-4B4B-83D7-632DC491D5A4}">
+  <dimension ref="A3:B54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="54">
+        <v>91415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="54">
+        <v>27166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="54">
+        <v>27166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="54">
+        <v>27166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="54">
+        <v>18541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="54">
+        <v>18541</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="54">
+        <v>18541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="54">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="54">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="54">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="54">
+        <v>26708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="54">
+        <v>26708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="54">
+        <v>26708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="54">
+        <v>43370.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="54">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="54">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="54">
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="54">
+        <v>27120.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="54">
+        <v>27120.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="54">
+        <v>27120.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="54">
+        <v>68374.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="54">
+        <v>19916.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="54">
+        <v>19916.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="54">
+        <v>19916.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="54">
+        <v>18083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="54">
+        <v>18083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="54">
+        <v>18083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="54">
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="54">
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="54">
+        <v>30375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="54">
+        <v>64761</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="54">
+        <v>28450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="54">
+        <v>28450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="54">
+        <v>28450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="54">
+        <v>16852.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="54">
+        <v>16852.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="54">
+        <v>16852.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="54">
+        <v>19458.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="54">
+        <v>19458.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="54">
+        <v>19458.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="54">
+        <v>66082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="54">
+        <v>17625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="54">
+        <v>17625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="54">
+        <v>17625</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="54">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="54">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="54">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="54">
+        <v>18657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="54">
+        <v>18657</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="54">
+        <v>18657</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="54">
+        <v>334003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939DE1F7-E4A7-4B85-8455-B8DDE7548657}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="25">
+        <v>30375</v>
+      </c>
+      <c r="E2" s="25">
+        <v>324500</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="26">
+        <v>34435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="25">
+        <v>19000</v>
+      </c>
+      <c r="E3" s="25">
+        <v>208000</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="26">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="25">
+        <v>16250</v>
+      </c>
+      <c r="E4" s="25">
+        <v>275000</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="26">
+        <v>36162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="25">
+        <v>18083</v>
+      </c>
+      <c r="E5" s="25">
+        <v>296996</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="26">
+        <v>36409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="25">
+        <v>27120.5</v>
+      </c>
+      <c r="E6" s="25">
+        <v>385446</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="26">
+        <v>36499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="25">
+        <v>28450</v>
+      </c>
+      <c r="E7" s="25">
+        <v>301400</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="26">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="25">
+        <v>18541</v>
+      </c>
+      <c r="E8" s="25">
+        <v>302492</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="26">
+        <v>36745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="25">
+        <v>26708</v>
+      </c>
+      <c r="E9" s="25">
+        <v>280496</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="26">
+        <v>36863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="E10" s="25">
+        <v>218998</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="26">
+        <v>37022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="25">
+        <v>18657</v>
+      </c>
+      <c r="E11" s="25">
+        <v>303884</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="26">
+        <v>37051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="25">
+        <v>17625</v>
+      </c>
+      <c r="E12" s="25">
+        <v>191500</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="26">
+        <v>37169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="25">
+        <v>16852.5</v>
+      </c>
+      <c r="E13" s="25">
+        <v>282230</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="26">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="25">
+        <v>27166</v>
+      </c>
+      <c r="E14" s="25">
+        <v>185992</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="26">
+        <v>37564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="25">
+        <v>29800</v>
+      </c>
+      <c r="E15" s="25">
+        <v>317600</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="26">
+        <v>37817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="E16" s="25">
+        <v>213502</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="26">
+        <v>38877</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67352F03-E1C1-4CFC-B293-0A700727CA47}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D909100-EA86-4480-86B0-36E9A58FBF78}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="A1:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="25">
+        <v>30375</v>
+      </c>
+      <c r="E2" s="25">
+        <v>324500</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="26">
+        <v>34435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="25">
+        <v>19000</v>
+      </c>
+      <c r="E3" s="25">
+        <v>208000</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="26">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="25">
+        <v>16250</v>
+      </c>
+      <c r="E4" s="25">
+        <v>275000</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="26">
+        <v>36162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="25">
+        <v>18083</v>
+      </c>
+      <c r="E5" s="25">
+        <v>296996</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="26">
+        <v>36409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="25">
+        <v>27120.5</v>
+      </c>
+      <c r="E6" s="25">
+        <v>385446</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="26">
+        <v>36499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="25">
+        <v>28450</v>
+      </c>
+      <c r="E7" s="25">
+        <v>301400</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="26">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="25">
+        <v>18541</v>
+      </c>
+      <c r="E8" s="25">
+        <v>302492</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="26">
+        <v>36745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="25">
+        <v>26708</v>
+      </c>
+      <c r="E9" s="25">
+        <v>280496</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="26">
+        <v>36863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="E10" s="25">
+        <v>218998</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="26">
+        <v>37022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="25">
+        <v>18657</v>
+      </c>
+      <c r="E11" s="25">
+        <v>303884</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="26">
+        <v>37051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="25">
+        <v>17625</v>
+      </c>
+      <c r="E12" s="25">
+        <v>191500</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="26">
+        <v>37169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="25">
+        <v>16852.5</v>
+      </c>
+      <c r="E13" s="25">
+        <v>282230</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="26">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="25">
+        <v>27166</v>
+      </c>
+      <c r="E14" s="25">
+        <v>185992</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="26">
+        <v>37564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="25">
+        <v>29800</v>
+      </c>
+      <c r="E15" s="25">
+        <v>317600</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="26">
+        <v>37817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="E16" s="25">
+        <v>213502</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="26">
+        <v>38877</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G16" xr:uid="{5D909100-EA86-4480-86B0-36E9A58FBF78}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E1E850-5A42-4AD1-A89D-1D309E64EF00}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="25">
+        <v>27166</v>
+      </c>
+      <c r="E3" s="25">
+        <v>185992</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="26">
+        <v>37564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="25">
+        <v>19000</v>
+      </c>
+      <c r="E4" s="25">
+        <v>208000</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="26">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="25">
+        <v>18541</v>
+      </c>
+      <c r="E5" s="25">
+        <v>302492</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="26">
+        <v>36745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="25">
+        <v>26708</v>
+      </c>
+      <c r="E6" s="25">
+        <v>280496</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="26">
+        <v>36863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="25">
+        <v>19000</v>
+      </c>
+      <c r="E9" s="25">
+        <v>208000</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="26">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="E10" s="25">
+        <v>218998</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="26">
+        <v>37022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="E11" s="25">
+        <v>213502</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="26">
+        <v>71750</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:G8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1569A1-E489-452A-9221-40CA86B29DC1}">
+  <dimension ref="A1:W15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="I1" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="Q1" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+    </row>
+    <row r="2" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="25">
+        <v>27166</v>
+      </c>
+      <c r="E3" s="25">
+        <v>185992</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="26">
+        <v>37564</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="25">
+        <v>28450</v>
+      </c>
+      <c r="M3" s="25">
+        <v>301400</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="26">
+        <v>36528</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="25">
+        <v>30375</v>
+      </c>
+      <c r="U3" s="25">
+        <v>324500</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="26">
+        <v>34435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="E4" s="25">
+        <v>218998</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="26">
+        <v>37022</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="25">
+        <v>27120.5</v>
+      </c>
+      <c r="M4" s="25">
+        <v>385446</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="26">
+        <v>36499</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="25">
+        <v>19000</v>
+      </c>
+      <c r="U4" s="25">
+        <v>208000</v>
+      </c>
+      <c r="V4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="26">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="25">
+        <v>18541</v>
+      </c>
+      <c r="E5" s="25">
+        <v>302492</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="26">
+        <v>36745</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="25">
+        <v>16250</v>
+      </c>
+      <c r="U5" s="25">
+        <v>275000</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" s="26">
+        <v>36162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="E6" s="25">
+        <v>213502</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="26">
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="25">
+        <v>17625</v>
+      </c>
+      <c r="E7" s="25">
+        <v>191500</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="26">
+        <v>37169</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="Q7" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="62"/>
+    </row>
+    <row r="8" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="25">
+        <v>26708</v>
+      </c>
+      <c r="E8" s="25">
+        <v>280496</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="26">
+        <v>36863</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="25">
+        <v>28450</v>
+      </c>
+      <c r="E9" s="25">
+        <v>301400</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="26">
+        <v>36528</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="25">
+        <v>30375</v>
+      </c>
+      <c r="M9" s="25">
+        <v>324500</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="26">
+        <v>34435</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="U9" s="25">
+        <v>213502</v>
+      </c>
+      <c r="V9" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="W9" s="26">
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="25">
+        <v>29800</v>
+      </c>
+      <c r="E10" s="25">
+        <v>317600</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="26">
+        <v>37817</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="25">
+        <v>18083</v>
+      </c>
+      <c r="M10" s="25">
+        <v>296996</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="26">
+        <v>36409</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="25">
+        <v>29800</v>
+      </c>
+      <c r="U10" s="25">
+        <v>317600</v>
+      </c>
+      <c r="V10" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" s="26">
+        <v>37817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="25">
+        <v>18657</v>
+      </c>
+      <c r="E11" s="25">
+        <v>303884</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="26">
+        <v>37051</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="M11" s="25">
+        <v>218998</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="26">
+        <v>37022</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="T11" s="25">
+        <v>27166</v>
+      </c>
+      <c r="U11" s="25">
+        <v>185992</v>
+      </c>
+      <c r="V11" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="W11" s="26">
+        <v>37564</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="25">
+        <v>16852.5</v>
+      </c>
+      <c r="E12" s="25">
+        <v>282230</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="26">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="Q7:W7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D6BFAA-CD77-4AB2-B351-F026E08DD714}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="25">
+        <v>16250</v>
+      </c>
+      <c r="E3" s="25">
+        <v>275000</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="26">
+        <v>36162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="25">
+        <v>27166</v>
+      </c>
+      <c r="E4" s="25">
+        <v>185992</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="26">
+        <v>37564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="25">
+        <v>28450</v>
+      </c>
+      <c r="E5" s="25">
+        <v>301400</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="26">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="25">
+        <v>27120.5</v>
+      </c>
+      <c r="E6" s="25">
+        <v>385446</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="26">
+        <v>36499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="25">
+        <v>17625</v>
+      </c>
+      <c r="E7" s="25">
+        <v>191500</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="26">
+        <v>37169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="E8" s="25">
+        <v>218998</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="26">
+        <v>37022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="25">
+        <v>29800</v>
+      </c>
+      <c r="E9" s="25">
+        <v>317600</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="26">
+        <v>37817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="25">
+        <v>18541</v>
+      </c>
+      <c r="E10" s="25">
+        <v>302492</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="26">
+        <v>36745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="25">
+        <v>16852.5</v>
+      </c>
+      <c r="E11" s="25">
+        <v>282230</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="26">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="25">
+        <v>18083</v>
+      </c>
+      <c r="E12" s="25">
+        <v>296996</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="26">
+        <v>36409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="E13" s="25">
+        <v>213502</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="26">
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="25">
+        <v>19000</v>
+      </c>
+      <c r="E14" s="25">
+        <v>208000</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="26">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="25">
+        <v>30375</v>
+      </c>
+      <c r="E15" s="25">
+        <v>324500</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="26">
+        <v>34435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="25">
+        <v>26708</v>
+      </c>
+      <c r="E16" s="25">
+        <v>280496</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="26">
+        <v>36863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="25">
+        <v>18657</v>
+      </c>
+      <c r="E17" s="25">
+        <v>303884</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="26">
+        <v>37051</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46095C0-A144-4B5C-A7B2-567726F5F0F8}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="25">
+        <v>30375</v>
+      </c>
+      <c r="E3" s="25">
+        <v>324500</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="26">
+        <v>34435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="25">
+        <v>19000</v>
+      </c>
+      <c r="E4" s="25">
+        <v>208000</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="26">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="25">
+        <v>16250</v>
+      </c>
+      <c r="E5" s="25">
+        <v>275000</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="26">
+        <v>36162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="25">
+        <v>18083</v>
+      </c>
+      <c r="E6" s="25">
+        <v>296996</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="26">
+        <v>36409</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="25">
+        <v>27120.5</v>
+      </c>
+      <c r="E7" s="25">
+        <v>385446</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="26">
+        <v>36499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="25">
+        <v>28450</v>
+      </c>
+      <c r="E8" s="25">
+        <v>301400</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="26">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="25">
+        <v>18541</v>
+      </c>
+      <c r="E9" s="25">
+        <v>302492</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="26">
+        <v>36745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="25">
+        <v>26708</v>
+      </c>
+      <c r="E10" s="25">
+        <v>280496</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="26">
+        <v>36863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="E11" s="25">
+        <v>218998</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="26">
+        <v>37022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="25">
+        <v>18657</v>
+      </c>
+      <c r="E12" s="25">
+        <v>303884</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="26">
+        <v>37051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="25">
+        <v>17625</v>
+      </c>
+      <c r="E13" s="25">
+        <v>191500</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="26">
+        <v>37169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="25">
+        <v>16852.5</v>
+      </c>
+      <c r="E14" s="25">
+        <v>282230</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="26">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="25">
+        <v>27166</v>
+      </c>
+      <c r="E15" s="25">
+        <v>185992</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="26">
+        <v>37564</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="25">
+        <v>29800</v>
+      </c>
+      <c r="E16" s="25">
+        <v>317600</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="26">
+        <v>37817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="E17" s="25">
+        <v>213502</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="26">
+        <v>71750</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B526987-4F7E-4594-AA2A-7B5A7638DC8F}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="25">
+        <v>19000</v>
+      </c>
+      <c r="E2" s="25">
+        <v>208000</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="26">
+        <v>35985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="25">
+        <v>18541</v>
+      </c>
+      <c r="E3" s="25">
+        <v>302492</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="26">
+        <v>36745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="25">
+        <v>26708</v>
+      </c>
+      <c r="E4" s="25">
+        <v>280496</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="26">
+        <v>36863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="25">
+        <v>27166</v>
+      </c>
+      <c r="E5" s="25">
+        <v>185992</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="26">
+        <v>37564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="25">
+        <f>SUBTOTAL(9,D2:D5)</f>
+        <v>91415</v>
+      </c>
+      <c r="E6" s="25">
+        <f>SUBTOTAL(9,E2:E5)</f>
+        <v>976980</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="25">
+        <v>16250</v>
+      </c>
+      <c r="E7" s="25">
+        <v>275000</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="26">
+        <v>36162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="25">
+        <v>27120.5</v>
+      </c>
+      <c r="E8" s="25">
+        <v>385446</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="26">
+        <v>36499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="25">
+        <f>SUBTOTAL(9,D7:D8)</f>
+        <v>43370.5</v>
+      </c>
+      <c r="E9" s="25">
+        <f>SUBTOTAL(9,E7:E8)</f>
+        <v>660446</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="25">
+        <v>30375</v>
+      </c>
+      <c r="E10" s="25">
+        <v>324500</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="26">
+        <v>34435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="25">
+        <v>18083</v>
+      </c>
+      <c r="E11" s="25">
+        <v>296996</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="26">
+        <v>36409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="25">
+        <v>19916.5</v>
+      </c>
+      <c r="E12" s="25">
+        <v>218998</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="26">
+        <v>37022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="25">
+        <f>SUBTOTAL(9,D10:D12)</f>
+        <v>68374.5</v>
+      </c>
+      <c r="E13" s="25">
+        <f>SUBTOTAL(9,E10:E12)</f>
+        <v>840494</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="25">
+        <v>28450</v>
+      </c>
+      <c r="E14" s="25">
+        <v>301400</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="26">
+        <v>36528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="25">
+        <v>16852.5</v>
+      </c>
+      <c r="E15" s="25">
+        <v>282230</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="26">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="25">
+        <v>19458.5</v>
+      </c>
+      <c r="E16" s="25">
+        <v>213502</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="26">
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="25">
+        <f>SUBTOTAL(9,D14:D16)</f>
+        <v>64761</v>
+      </c>
+      <c r="E17" s="25">
+        <f>SUBTOTAL(9,E14:E16)</f>
+        <v>797132</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="25">
+        <v>18657</v>
+      </c>
+      <c r="E18" s="25">
+        <v>303884</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="26">
+        <v>37051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="25">
+        <v>17625</v>
+      </c>
+      <c r="E19" s="25">
+        <v>191500</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="26">
+        <v>37169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="25">
+        <v>29800</v>
+      </c>
+      <c r="E20" s="25">
+        <v>317600</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="26">
+        <v>37817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28">
+        <f>SUBTOTAL(9,D18:D20)</f>
+        <v>66082</v>
+      </c>
+      <c r="E21" s="28">
+        <f>SUBTOTAL(9,E18:E20)</f>
+        <v>812984</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28">
+        <f>SUBTOTAL(9,D2:D20)</f>
+        <v>334003</v>
+      </c>
+      <c r="E22" s="28">
+        <f>SUBTOTAL(9,E2:E20)</f>
+        <v>4088036</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="29"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:F28" xr:uid="{6B526987-4F7E-4594-AA2A-7B5A7638DC8F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G28">
+      <sortCondition ref="F1:F28"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9472474F-3468-40B8-9872-385ABFE1BFD5}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="39">
+        <v>79082223344</v>
+      </c>
+      <c r="E2" s="40">
+        <v>300</v>
+      </c>
+      <c r="F2" s="8">
+        <v>22</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="42">
+        <v>45481</v>
+      </c>
+      <c r="I2" s="9">
+        <v>4</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="39">
+        <v>79998884533</v>
+      </c>
+      <c r="E3" s="40">
+        <v>800</v>
+      </c>
+      <c r="F3" s="8">
+        <v>44</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="42">
+        <v>45494</v>
+      </c>
+      <c r="I3" s="9">
+        <v>8</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="35">
+        <v>79082113456</v>
+      </c>
+      <c r="E4" s="36"/>
+      <c r="F4" s="6">
+        <v>19</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="38">
+        <v>45655</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36">
+        <f>SUBTOTAL(9,E2:E4)</f>
+        <v>1100</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="35">
+        <v>79131921234</v>
+      </c>
+      <c r="E6" s="36">
+        <v>567</v>
+      </c>
+      <c r="F6" s="6">
+        <v>33</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="38">
+        <v>45323</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="35">
+        <v>79501233456</v>
+      </c>
+      <c r="E7" s="36">
+        <v>400</v>
+      </c>
+      <c r="F7" s="6">
+        <v>88</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="38">
+        <v>45607</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="39">
+        <v>79997771234</v>
+      </c>
+      <c r="E8" s="40">
+        <v>200</v>
+      </c>
+      <c r="F8" s="8">
+        <v>21</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="42">
+        <v>45572</v>
+      </c>
+      <c r="I8" s="9">
+        <v>4</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="35">
+        <v>78886662345</v>
+      </c>
+      <c r="E9" s="36">
+        <v>155</v>
+      </c>
+      <c r="F9" s="6">
+        <v>55</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="38">
+        <v>45386</v>
+      </c>
+      <c r="I9" s="7">
+        <v>78</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="39">
+        <v>77775553456</v>
+      </c>
+      <c r="E10" s="40">
+        <v>1200.5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>66</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="42">
+        <v>45435</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46">
+        <f>SUBTOTAL(9,E6:E10)</f>
+        <v>2522.5</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46">
+        <f>SUBTOTAL(9,E2:E10)</f>
+        <v>3622.5</v>
+      </c>
+      <c r="F12" s="44"/>
+      <c r="G12" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:J10" xr:uid="{9472474F-3468-40B8-9872-385ABFE1BFD5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J10">
+      <sortCondition ref="G1:G10"/>
+    </sortState>
+  </autoFilter>
+  <dataValidations count="5">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Возраст вкладчика должен быть от 18 и до 100" prompt="Укажите возраст вкладчика" sqref="F2:F4 F6:F10" xr:uid="{E4A88C90-3D13-4E0A-8149-DABA12FFB5A5}">
+      <formula1>18</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Введённая дата не находится в допустимом диапазоне" prompt="Введите дату с 1 яанваря по 31 декабря текущего года" sqref="H2:H4 H6:H10" xr:uid="{BC8D0DB4-35C9-4E92-998B-E05873227499}">
+      <formula1>45292</formula1>
+      <formula2>45657</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Срок вклада не может быть меньше 2 лет" prompt="Введите срок вклада" sqref="I2:I4 I6:I10" xr:uid="{8FB355FA-77E0-4A67-8C04-20AAB62EFB9C}">
+      <formula1>2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Внимание" error="Введёно неверное название города" prompt="Укажите город из списка: Москва, Новороссийск, Екатеринбург, Омск, Красноярск." sqref="J2:J4 J6:J10" xr:uid="{945A8927-C05D-44AA-9C84-8B2FE587E811}">
+      <formula1>"Москва, Новороссийск,Екатеринбург,Омск,Красноярск"</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Введите номер телефона" sqref="D2:D4 D6:D10" xr:uid="{AFFC2FEB-851F-4BF8-805D-78180B1EC3E1}">
+      <formula1>11</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Вы неверно ввели вид счёта_x000a_" prompt="Введите вид счёта: текущий/срочный" xr:uid="{F78B9016-22DA-4B2F-AECA-1443D3F13897}">
+          <x14:formula1>
+            <xm:f>'Список значений'!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G4 G6:G10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35D4DC28-09C1-496E-BA32-EB058915201D}">
+          <x14:formula1>
+            <xm:f>'Список значений'!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>